--- a/tests/Gauges/tLists5_GlobalVars.xlsx
+++ b/tests/Gauges/tLists5_GlobalVars.xlsx
@@ -104,7 +104,6 @@
       <x:sz val="8"/>
       <x:name val="Arial"/>
       <x:family val="2"/>
-      <x:charset val="204"/>
     </x:font>
     <x:font>
       <x:b/>
@@ -112,13 +111,11 @@
       <x:color indexed="16"/>
       <x:name val="Arial"/>
       <x:family val="2"/>
-      <x:charset val="204"/>
     </x:font>
     <x:font>
       <x:sz val="9"/>
       <x:name val="Arial"/>
       <x:family val="2"/>
-      <x:charset val="204"/>
     </x:font>
     <x:font>
       <x:sz val="9"/>
@@ -179,7 +176,6 @@
       <x:sz val="9"/>
       <x:name val="Arial"/>
       <x:family val="2"/>
-      <x:charset val="204"/>
     </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
